--- a/Задание (баг репорт на английском)/Listboxer.xlsx
+++ b/Задание (баг репорт на английском)/Listboxer.xlsx
@@ -33,9 +33,6 @@
     <t>Describtion</t>
   </si>
   <si>
-    <t>Sittings line: The "Edit" button is spelled wrong</t>
-  </si>
-  <si>
     <t>Sevetity</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
   </si>
   <si>
     <t>Attachment</t>
-  </si>
-  <si>
-    <t>Sort Order: The sort logic in the program is incorrect</t>
   </si>
   <si>
     <r>
@@ -347,6 +341,12 @@
       </rPr>
       <t xml:space="preserve"> Number 10000 can be added to the list</t>
     </r>
+  </si>
+  <si>
+    <t>Sittings line: The "Edit" button is spelled 'Edjt'</t>
+  </si>
+  <si>
+    <t>Sort Order: The sort logic uses only one digit of whole number</t>
   </si>
 </sst>
 </file>
@@ -762,12 +762,12 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
@@ -786,16 +786,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -806,60 +806,60 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="252" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
